--- a/documents/templates/bulk-upload/15-BulkUploadMonthlyRequirement.xlsx
+++ b/documents/templates/bulk-upload/15-BulkUploadMonthlyRequirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C245FA84-3B28-0E4F-A15C-2F3A894F62FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE198E98-AC27-8041-8BE1-FF9A6729A9F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="16040" xr2:uid="{6BC27182-73A8-D94B-97E4-67DF06DD5638}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{6BC27182-73A8-D94B-97E4-67DF06DD5638}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Part Number</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Schedule Name</t>
-  </si>
-  <si>
-    <t>DL01 Shortage</t>
   </si>
   <si>
     <t>Description</t>
@@ -504,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00918543-CCCC-1A4B-991F-874C25238D88}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,8 +510,10 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -532,25 +531,25 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -561,19 +560,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>319013083002</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="4">
         <v>1348</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -583,30 +582,28 @@
       <c r="B3" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2">
         <v>319021083065</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J3" s="5">
         <v>509</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/documents/templates/bulk-upload/15-BulkUploadMonthlyRequirement.xlsx
+++ b/documents/templates/bulk-upload/15-BulkUploadMonthlyRequirement.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineshgajjar/Documents/Work/GitLab/YHWorks/Briot/clients/TMML/server/documents/templates/bulk-upload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All Projects\TMML\server\server\documents\templates\bulk-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE198E98-AC27-8041-8BE1-FF9A6729A9F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FFE771-EDCE-433E-B89C-35B3FAA18444}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{6BC27182-73A8-D94B-97E4-67DF06DD5638}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6BC27182-73A8-D94B-97E4-67DF06DD5638}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Part Number</t>
   </si>
@@ -45,21 +39,12 @@
     <t>Required in month</t>
   </si>
   <si>
-    <t>Schedule Name</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>BATTERY SUPPORT BRACKET</t>
   </si>
   <si>
-    <t>Y1-DASHBOARD REINFORCEMENT PLATE_ABS</t>
-  </si>
-  <si>
-    <t>Machine Shop Monthly Plan</t>
-  </si>
-  <si>
     <t>UOM</t>
   </si>
   <si>
@@ -76,22 +61,13 @@
   </si>
   <si>
     <t>MTS (Made to Stock)</t>
-  </si>
-  <si>
-    <t>SRF (Supplier Request Form)</t>
-  </si>
-  <si>
-    <t>EVR</t>
-  </si>
-  <si>
-    <t>IB (International Bus)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +89,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -168,23 +150,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,25 +478,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00918543-CCCC-1A4B-991F-874C25238D88}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="23" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="23" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -525,88 +503,72 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6">
+        <v>379007084229</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="I2" s="3">
+        <v>1348</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B2" s="3">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>319013083002</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1348</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2019</v>
-      </c>
-      <c r="B3" s="3">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2">
-        <v>319021083065</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="2">
         <v>7</v>
       </c>
-      <c r="J3" s="5">
-        <v>509</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="K5" t="s">
-        <v>17</v>
+      <c r="C3">
+        <v>379007084230</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>